--- a/trend_results/Rivers/OrouaatdsFeildingSTP_1f7c6dc4c5.xlsx
+++ b/trend_results/Rivers/OrouaatdsFeildingSTP_1f7c6dc4c5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.58945120822402</v>
+        <v>0.41054879177598</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.845881985183373</v>
+        <v>0.154118014816627</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.425035370218255</v>
+        <v>0.574964629781745</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.114712969729217</v>
+        <v>0.885287030270783</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.04320536648685</v>
+        <v>0.216116151810697</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.765625</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4</v>
+        <v>6.5</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0267556918380087</v>
+        <v>0.0135428757440476</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.06714650011123779</v>
+        <v>-0.0550699525256462</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0019047130565484</v>
+        <v>0.214635793470255</v>
       </c>
       <c r="N30" t="n">
-        <v>-6.68892295950216</v>
+        <v>0.208351934523809</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,7 +3175,11 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3200,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.40324797025367</v>
+        <v>0.329611364082411</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0182926829268293</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.420731707317073</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>1.2</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.51918101435914</v>
+        <v>-0.0049931647300068</v>
       </c>
       <c r="L31" t="n">
-        <v>-9.99155707056128</v>
+        <v>-0.0332336568174516</v>
       </c>
       <c r="M31" t="n">
-        <v>4.29707153504951</v>
+        <v>0.0125020209385435</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.51918101435914</v>
+        <v>-0.416097060833902</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3233,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3262,7 +3266,11 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3272,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3287,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.59675202974633</v>
+        <v>0.0053877426739149</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.820809248554913</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.444</v>
+        <v>10.43</v>
       </c>
       <c r="K32" t="n">
-        <v>0.130265754847645</v>
+        <v>-0.0419310631980442</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.538876494820238</v>
+        <v>-0.0634509585926876</v>
       </c>
       <c r="M32" t="n">
-        <v>0.491079022841332</v>
+        <v>-0.0141232116256489</v>
       </c>
       <c r="N32" t="n">
-        <v>2.39283164672383</v>
+        <v>-0.40202361647214</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3349,7 +3357,11 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3359,11 +3371,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3374,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.125726093254011</v>
+        <v>0.9999981437473811</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.0395480225988701</v>
       </c>
       <c r="H33" t="n">
+        <v>0.406779661016949</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.4</v>
+        <v>0.019</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0034220920947564</v>
+        <v>-0.0017843314465547</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.019856649112907</v>
+        <v>-0.0026660583941605</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0024381776017739</v>
+        <v>-0.0010332390381895</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.855523023689112</v>
+        <v>-9.39121813976204</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,7 +3448,11 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3446,11 +3462,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3461,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.673288952622341</v>
+        <v>0.99949884282707</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9</v>
+        <v>0.72316384180791</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>98.5</v>
+        <v>225</v>
       </c>
       <c r="K34" t="n">
-        <v>0.65972491349481</v>
+        <v>-12.9920509171588</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.01058692234053</v>
+        <v>-19.3134627682725</v>
       </c>
       <c r="M34" t="n">
-        <v>2.16431314583116</v>
+        <v>-6.15447672699323</v>
       </c>
       <c r="N34" t="n">
-        <v>0.669771485781533</v>
+        <v>-5.77424485207056</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3494,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3523,7 +3539,11 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3533,11 +3553,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -3548,31 +3568,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.985716159099243</v>
+        <v>0.860461738185426</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.0535714285714286</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>0.407840748771534</v>
       </c>
       <c r="K35" t="n">
-        <v>0.204614762800072</v>
+        <v>-0.0069859814960368</v>
       </c>
       <c r="L35" t="n">
-        <v>0.09837126845963901</v>
+        <v>-0.0167522659720167</v>
       </c>
       <c r="M35" t="n">
-        <v>0.295018735911952</v>
+        <v>0.00317896867867</v>
       </c>
       <c r="N35" t="n">
-        <v>4.09229525600143</v>
+        <v>-1.71291895600904</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3581,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3610,7 +3630,1166 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.992577300719458</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.032258064516129</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.47741935483871</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0011467817896389</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0020871428571428</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.0003753854059609</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-4.58712715855573</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.800616348954645</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0189873417721519</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.924050632911392</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.84395</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0106872444331707</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0301171352590299</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0119220787530104</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-1.26633620868188</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.999999572243727</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.624277456647399</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0320483769104459</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0222655382539759</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0400973591726448</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.420582374152833</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.994807324786692</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.937853107344633</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0589601508765386</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0968664305745711</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.022961772920312</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-3.68500942978366</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.999851732089355</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.858757062146893</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0893607865109074</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.129835507008227</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.0502294843632019</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-4.70319929004776</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.999999935664306</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.6610169491525421</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.0050171703296703</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0070240384615384</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.0034290010683776</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-7.83932864010989</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9169126782728459</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.9034090909090911</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0489223744292238</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.0966712705284708</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.009991789992617101</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-1.24168463018334</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.04320536648685</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0267556918380087</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.06714650011123779</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.0019047130565484</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-6.68892295950216</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>100</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-1.51918101435914</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-9.99155707056128</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4.29707153504951</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-1.51918101435914</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.444</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.130265754847645</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.538876494820238</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.491079022841332</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.39283164672383</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.125726093254011</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0034220920947564</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.019856649112907</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0024381776017739</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.855523023689112</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.673288952622341</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.65972491349481</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.01058692234053</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.16431314583116</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.669771485781533</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Oroua at d/s Feilding STP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.985716159099243</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.204614762800072</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.09837126845963901</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.295018735911952</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4.09229525600143</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1816085.392</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5539897.699</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/OrouaatdsFeildingSTP_1f7c6dc4c5.xlsx
+++ b/trend_results/Rivers/OrouaatdsFeildingSTP_1f7c6dc4c5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W48"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.342549611721766</v>
+        <v>0.351419393643577</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9459459459459461</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>0.499327904238619</v>
+        <v>0.318260905760906</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.75956773656019</v>
+        <v>-1.57515722505181</v>
       </c>
       <c r="M2" t="n">
-        <v>4.65566254654134</v>
+        <v>5.17072069777856</v>
       </c>
       <c r="N2" t="n">
-        <v>4.16106586865515</v>
+        <v>2.12173937173937</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.831062575630752</v>
+        <v>0.243568641959045</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.620689655172414</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.975</v>
+        <v>0.925</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0587772058039049</v>
+        <v>-0.031706878223817</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0492981736763839</v>
+        <v>-0.268734438557918</v>
       </c>
       <c r="M3" t="n">
-        <v>0.201553549259771</v>
+        <v>0.0540571062813085</v>
       </c>
       <c r="N3" t="n">
-        <v>6.02843136450307</v>
+        <v>-3.42777061879103</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.41054879177598</v>
+        <v>0.469957046613374</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.929824561403509</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.54</v>
+        <v>10.56</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0248469387755106</v>
+        <v>-0.0334478021978027</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.124261263967195</v>
+        <v>-0.144321372850834</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0528229276717833</v>
+        <v>0.0635107614410431</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.235739457073155</v>
+        <v>-0.316740551115556</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -842,35 +842,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.497387656549907</v>
+        <v>0.153432605118517</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.559322033898305</v>
+        <v>0.508474576271186</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.0008263574660633</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.001778158986722</v>
+        <v>-0.0005162356629546001</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002211640022267</v>
+        <v>0.0023193567722949</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>5.50904977375565</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.994924751225619</v>
+        <v>0.739255724619832</v>
       </c>
       <c r="G6" t="n">
         <v>0.0508474576271186</v>
@@ -949,19 +949,19 @@
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="K6" t="n">
-        <v>-39.4864864864865</v>
+        <v>-5.99753694581281</v>
       </c>
       <c r="L6" t="n">
-        <v>-76.93240118098311</v>
+        <v>-25.8677665484484</v>
       </c>
       <c r="M6" t="n">
-        <v>-12.9981197663916</v>
+        <v>13.0653807649159</v>
       </c>
       <c r="N6" t="n">
-        <v>-19.7432432432432</v>
+        <v>-4.61348995831754</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,28 +1028,28 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.5</v>
+        <v>0.43224397102947</v>
       </c>
       <c r="G7" t="n">
-        <v>0.115384615384615</v>
+        <v>0.150943396226415</v>
       </c>
       <c r="H7" t="n">
-        <v>0.923076923076923</v>
+        <v>0.886792452830189</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>0.400322786935686</v>
+        <v>0.215705616361785</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0992052778927521</v>
+        <v>-0.0200929525220651</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0089289788763234</v>
+        <v>0.0065314885072275</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.667908339253463</v>
+        <v>0.58659609782936</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0677966101694915</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="H8" t="n">
-        <v>0.627118644067797</v>
+        <v>0.593220338983051</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.021</v>
+        <v>0.017</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.000831662832425</v>
+        <v>-0.0002508585164835</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0035239513103989</v>
+        <v>-0.0023305572954112</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0010909155257717</v>
+        <v>0.0010912498949882</v>
       </c>
       <c r="N8" t="n">
-        <v>-3.96029920202394</v>
+        <v>-1.47563833225598</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1206,35 +1206,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.109935855314351</v>
+        <v>0.0484690942141995</v>
       </c>
       <c r="G9" t="n">
         <v>0.0508474576271186</v>
       </c>
       <c r="H9" t="n">
-        <v>0.932203389830508</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.792</v>
+        <v>0.79</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0282108320251178</v>
+        <v>0.0252584167424932</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0128322432251491</v>
+        <v>0.0008098631520426</v>
       </c>
       <c r="M9" t="n">
-        <v>0.138823606388926</v>
+        <v>0.0739135055913305</v>
       </c>
       <c r="N9" t="n">
-        <v>3.56197374054517</v>
+        <v>3.19726794208774</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1293,7 +1293,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.154118014816627</v>
+        <v>0.295676810411018</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.912280701754386</v>
+        <v>0.875</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.79</v>
+        <v>7.805</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0423032011847801</v>
+        <v>-0.0200686813186818</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.114337587342763</v>
+        <v>-0.09255114156561831</v>
       </c>
       <c r="M10" t="n">
-        <v>0.025980133598723</v>
+        <v>0.045154532967033</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.54304494460565</v>
+        <v>-0.257125961802457</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.109935855314351</v>
+        <v>0.139508156605682</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.966101694915254</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.5</v>
+        <v>1.259</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0840008530482257</v>
+        <v>0.0352434210526316</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0362207894351236</v>
+        <v>-0.0192256010097989</v>
       </c>
       <c r="M11" t="n">
-        <v>0.240876558503064</v>
+        <v>0.102933563807323</v>
       </c>
       <c r="N11" t="n">
-        <v>5.60005686988171</v>
+        <v>2.79931859035994</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1475,35 +1475,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.828895089161989</v>
+        <v>0.109935855314351</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0677966101694915</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.610169491525424</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>11</v>
+        <v>1.42</v>
       </c>
       <c r="K12" t="n">
-        <v>-1.74181007671574</v>
+        <v>0.038697026657553</v>
       </c>
       <c r="L12" t="n">
-        <v>-10.2767281804422</v>
+        <v>-0.0468715211971429</v>
       </c>
       <c r="M12" t="n">
-        <v>0.562254156399243</v>
+        <v>0.114441194461185</v>
       </c>
       <c r="N12" t="n">
-        <v>-15.8346370610522</v>
+        <v>2.72514272236289</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,46 +1555,46 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.306715686477583</v>
+        <v>0.518262144223652</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.932203389830508</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.72</v>
+        <v>0.044</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0448146162780309</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.212907569591019</v>
+        <v>-0.006365616796955</v>
       </c>
       <c r="M13" t="n">
-        <v>0.198395496852283</v>
+        <v>0.004629684704609</v>
       </c>
       <c r="N13" t="n">
-        <v>2.60550094639715</v>
+        <v>0</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.927692014017273</v>
+        <v>0.528766206292791</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.779661016949153</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.048</v>
+        <v>4.49</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0050292598967297</v>
+        <v>-0.0117067307692308</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0134278916443951</v>
+        <v>-0.267458501484423</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0003961716843656</v>
+        <v>0.683056741773997</v>
       </c>
       <c r="N14" t="n">
-        <v>-10.4776247848537</v>
+        <v>-0.260728970361487</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.997016447127421</v>
+        <v>0.0794261708281678</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.0123456790123457</v>
       </c>
       <c r="H15" t="n">
-        <v>0.966101694915254</v>
+        <v>0.814814814814815</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>4.34</v>
+        <v>6.5</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.729722432056587</v>
+        <v>0.0971709234601722</v>
       </c>
       <c r="L15" t="n">
-        <v>-6.3697269032047</v>
+        <v>-0.0400585874960445</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.104993154791759</v>
+        <v>0.557188064617284</v>
       </c>
       <c r="N15" t="n">
-        <v>-16.8138809229628</v>
+        <v>1.49493728400265</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.6911161956199739</v>
+        <v>0.03631464626037</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.018348623853211</v>
       </c>
       <c r="H16" t="n">
-        <v>0.804597701149425</v>
+        <v>0.55045871559633</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>0.95</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0152291524265208</v>
+        <v>-0.0499316473000684</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.993917990331349</v>
+        <v>-0.104822545506847</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0688711916205743</v>
+        <v>-0.0009229089162518</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.217559320378869</v>
+        <v>-5.25596287369141</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.094416125375552</v>
+        <v>0.882532871999973</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0173913043478261</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.539130434782609</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.1</v>
+        <v>10.395</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0366483044877983</v>
+        <v>0.0271508215962441</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0998632946001367</v>
+        <v>-0.0113898730651576</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0033742051078834</v>
+        <v>0.0533948509771427</v>
       </c>
       <c r="N17" t="n">
-        <v>-3.3316640443453</v>
+        <v>0.261191164947033</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.574964629781745</v>
+        <v>0.0611538726485215</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.836206896551724</v>
+        <v>0.378151260504202</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.395</v>
+        <v>0.014</v>
       </c>
       <c r="K18" t="n">
-        <v>0.005997536945813</v>
+        <v>0.0003998357963875</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0465908323166402</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0491457943258959</v>
+        <v>0.0007950565645537001</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0576963631150845</v>
+        <v>2.85596997419657</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0255952868095797</v>
+        <v>0.817892545686101</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.0252100840336134</v>
       </c>
       <c r="H19" t="n">
-        <v>0.38655462184874</v>
+        <v>0.73109243697479</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.014</v>
+        <v>160</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0006248930710008</v>
+        <v>-4.81648351648352</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-14.693436386589</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0011998476432207</v>
+        <v>3.73645200829436</v>
       </c>
       <c r="N19" t="n">
-        <v>4.4635219357204</v>
+        <v>-3.0103021978022</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9372583202260369</v>
+        <v>0.856462007398773</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0252100840336134</v>
+        <v>0.0818181818181818</v>
       </c>
       <c r="H20" t="n">
-        <v>0.747899159663866</v>
+        <v>0.936363636363636</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>162</v>
+        <v>0.378804020257681</v>
       </c>
       <c r="K20" t="n">
-        <v>-7.81926718814327</v>
+        <v>-0.0105151453085307</v>
       </c>
       <c r="L20" t="n">
-        <v>-15.4603174603175</v>
+        <v>-0.0290455732530356</v>
       </c>
       <c r="M20" t="n">
-        <v>0.319694342979649</v>
+        <v>0.0051905955008289</v>
       </c>
       <c r="N20" t="n">
-        <v>-4.82670814082918</v>
+        <v>-2.77588007154142</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.310851400529775</v>
+        <v>0.992186709596007</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0636363636363636</v>
+        <v>0.0504201680672269</v>
       </c>
       <c r="H21" t="n">
-        <v>0.954545454545455</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.378804020257681</v>
+        <v>0.023</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0049238182093504</v>
+        <v>-0.0016362618218018</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0124133332245164</v>
+        <v>-0.0026941202702117</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0280136541043639</v>
+        <v>-0.0005095995211542</v>
       </c>
       <c r="N21" t="n">
-        <v>1.29983261687693</v>
+        <v>-7.11418183392127</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,14 +2374,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.8992987161845269</v>
+        <v>0.622975212642385</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0336134453781513</v>
+        <v>0.0252100840336134</v>
       </c>
       <c r="H22" t="n">
-        <v>0.495798319327731</v>
+        <v>0.9327731092436971</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.023</v>
+        <v>0.847</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0007614662960389</v>
+        <v>-0.0099577426390403</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0018695578522757</v>
+        <v>-0.0411409321240054</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0001840986024269</v>
+        <v>0.0152880977262974</v>
       </c>
       <c r="N22" t="n">
-        <v>-3.31072302625616</v>
+        <v>-1.17564848158682</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0473652213965874</v>
+        <v>0.73474277516158</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0252100840336134</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9327731092436971</v>
+        <v>0.739130434782609</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.792</v>
+        <v>7.75</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0299112829845313</v>
+        <v>0.0098361759425494</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0011882295045261</v>
+        <v>-0.0123004892950671</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0581330881335494</v>
+        <v>0.0279960326420613</v>
       </c>
       <c r="N23" t="n">
-        <v>3.77667714451153</v>
+        <v>0.126918399258703</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.885287030270783</v>
+        <v>0.671478325946215</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.739130434782609</v>
+        <v>0.949579831932773</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.69</v>
+        <v>1.46</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0137947012851035</v>
+        <v>-0.0147278225806452</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0080268582878629</v>
+        <v>-0.0851411353428799</v>
       </c>
       <c r="M24" t="n">
-        <v>0.032844831715444</v>
+        <v>0.0399023066398388</v>
       </c>
       <c r="N24" t="n">
-        <v>0.179384932186001</v>
+        <v>-1.00875497127707</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0594327310399208</v>
+        <v>0.88512427455579</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9411764705882349</v>
+        <v>0.899159663865546</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.39</v>
+        <v>1.73</v>
       </c>
       <c r="K25" t="n">
-        <v>0.06459109502831969</v>
+        <v>-0.0635109103307194</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0036572085690895</v>
+        <v>-0.137136417024628</v>
       </c>
       <c r="M25" t="n">
-        <v>0.123682409545234</v>
+        <v>0.0102600476517986</v>
       </c>
       <c r="N25" t="n">
-        <v>4.64684136894386</v>
+        <v>-3.67115088616875</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2745,35 +2745,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.198467893397565</v>
+        <v>0.760099385087927</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0840336134453782</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.46218487394958</v>
+        <v>0.65546218487395</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>10</v>
+        <v>0.047</v>
       </c>
       <c r="K26" t="n">
-        <v>0.167239010989011</v>
+        <v>-0.0006668188041989</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0665254225463295</v>
+        <v>-0.0019603144172671</v>
       </c>
       <c r="M26" t="n">
-        <v>0.499634776457843</v>
+        <v>0.0009765017982265</v>
       </c>
       <c r="N26" t="n">
-        <v>1.67239010989011</v>
+        <v>-1.41876341318935</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,46 +2825,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>10</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.307479138648202</v>
+        <v>0.5</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.907563025210084</v>
+        <v>0.9327731092436971</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.72</v>
+        <v>4.88</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0223622448979592</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0463716388184196</v>
+        <v>-0.107562443409577</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0826111200568858</v>
+        <v>0.124153074211534</v>
       </c>
       <c r="N27" t="n">
-        <v>1.30013051732321</v>
+        <v>0</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.510432463468049</v>
+        <v>0.24544412214029</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0074626865671641</v>
       </c>
       <c r="H28" t="n">
-        <v>0.647058823529412</v>
+        <v>0.746268656716418</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.047</v>
+        <v>6.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.0127538387170155</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0012819271031226</v>
+        <v>-0.0606869664229893</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0013922413380828</v>
+        <v>0.188084598455352</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.1962129033387</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.671478325946215</v>
+        <v>0.112269269121218</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0125786163522013</v>
       </c>
       <c r="H29" t="n">
-        <v>0.92436974789916</v>
+        <v>0.452830188679245</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>4.09</v>
+        <v>1.1</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0219909688013136</v>
+        <v>-0.0169061645276667</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.10835738822782</v>
+        <v>-0.0499316473000684</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0836110317684193</v>
+        <v>0.0039301561824825</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.537676498809624</v>
+        <v>-1.5369240479697</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.216116151810697</v>
+        <v>0.08487286575802901</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.765625</v>
+        <v>0.8092485549132949</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>6.5</v>
+        <v>10.42</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0135428757440476</v>
+        <v>-0.0200446181516323</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0550699525256462</v>
+        <v>-0.046918542935038</v>
       </c>
       <c r="M30" t="n">
-        <v>0.214635793470255</v>
+        <v>0.0051853234185272</v>
       </c>
       <c r="N30" t="n">
-        <v>0.208351934523809</v>
+        <v>-0.192366776887067</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.998373632528365</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0451977401129944</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.350282485875706</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.329611364082411</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0182926829268293</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.420731707317073</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.2</v>
+        <v>0.016</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0049931647300068</v>
+        <v>-0.0008139275867062</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0332336568174516</v>
+        <v>-0.0013588169642857</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0125020209385435</v>
+        <v>-0.000342528915286</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.416097060833902</v>
+        <v>-5.08704741691387</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0053877426739149</v>
+        <v>0.998105978364994</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H32" t="n">
-        <v>0.820809248554913</v>
+        <v>0.734463276836158</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>10.43</v>
+        <v>220</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0419310631980442</v>
+        <v>-10.8954178844526</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0634509585926876</v>
+        <v>-17.397429120093</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0141232116256489</v>
+        <v>-4.70376696110298</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.40202361647214</v>
+        <v>-4.95246267475119</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3386,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.9999981437473811</v>
+        <v>0.961789816308852</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0395480225988701</v>
+        <v>0.0658682634730539</v>
       </c>
       <c r="H33" t="n">
-        <v>0.406779661016949</v>
+        <v>0.952095808383233</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>0.019</v>
+        <v>0.384101041194848</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0017843314465547</v>
+        <v>-0.0103561290945801</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0026660583941605</v>
+        <v>-0.0201046330576076</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0010332390381895</v>
+        <v>-0.000629003301489</v>
       </c>
       <c r="N33" t="n">
-        <v>-9.39121813976204</v>
+        <v>-2.6961991725835</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.99949884282707</v>
+        <v>0.997461602787286</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0169491525423729</v>
+        <v>0.0419161676646707</v>
       </c>
       <c r="H34" t="n">
-        <v>0.72316384180791</v>
+        <v>0.461077844311377</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>225</v>
+        <v>0.024</v>
       </c>
       <c r="K34" t="n">
-        <v>-12.9920509171588</v>
+        <v>-0.0011801292407108</v>
       </c>
       <c r="L34" t="n">
-        <v>-19.3134627682725</v>
+        <v>-0.001985054347826</v>
       </c>
       <c r="M34" t="n">
-        <v>-6.15447672699323</v>
+        <v>-0.0004996707792235</v>
       </c>
       <c r="N34" t="n">
-        <v>-5.77424485207056</v>
+        <v>-4.91720516962843</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3553,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3568,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.860461738185426</v>
+        <v>0.782239149707043</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0535714285714286</v>
+        <v>0.0179640718562874</v>
       </c>
       <c r="H35" t="n">
-        <v>0.964285714285714</v>
+        <v>0.916167664670659</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.407840748771534</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0069859814960368</v>
+        <v>-0.0099219800537984</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0167522659720167</v>
+        <v>-0.0273423514656723</v>
       </c>
       <c r="M35" t="n">
-        <v>0.00317896867867</v>
+        <v>0.011131000015712</v>
       </c>
       <c r="N35" t="n">
-        <v>-1.71291895600904</v>
+        <v>-1.2279678284404</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3644,14 +3644,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3659,31 +3659,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.992577300719458</v>
+        <v>0.99999972149659</v>
       </c>
       <c r="G36" t="n">
-        <v>0.032258064516129</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.47741935483871</v>
+        <v>0.6220930232558139</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.025</v>
+        <v>7.655</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0011467817896389</v>
+        <v>0.0301030219780219</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0020871428571428</v>
+        <v>0.0200686813186813</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.0003753854059609</v>
+        <v>0.0396500540637979</v>
       </c>
       <c r="N36" t="n">
-        <v>-4.58712715855573</v>
+        <v>0.393246531391534</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,35 +3742,35 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.800616348954645</v>
+        <v>0.975717870756142</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0189873417721519</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.924050632911392</v>
+        <v>0.943502824858757</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.84395</v>
+        <v>1.46</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0106872444331707</v>
+        <v>-0.0458056161395856</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0301171352590299</v>
+        <v>-0.07520636005228321</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0119220787530104</v>
+        <v>-0.007978254967942</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.26633620868188</v>
+        <v>-3.13737096846477</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3822,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.999999572243727</v>
+        <v>0.998089302340347</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.624277456647399</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.62</v>
+        <v>1.8</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0320483769104459</v>
+        <v>-0.0722472527472528</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0222655382539759</v>
+        <v>-0.115082164158378</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0400973591726448</v>
+        <v>-0.0356900481056303</v>
       </c>
       <c r="N38" t="n">
-        <v>0.420582374152833</v>
+        <v>-4.01373626373627</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,14 +3913,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3928,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.994807324786692</v>
+        <v>0.99996970736785</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.937853107344633</v>
+        <v>0.627118644067797</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.6</v>
+        <v>0.056</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0589601508765386</v>
+        <v>-0.0029911282984531</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0968664305745711</v>
+        <v>-0.0045661689888912</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.022961772920312</v>
+        <v>-0.0014459438061142</v>
       </c>
       <c r="N39" t="n">
-        <v>-3.68500942978366</v>
+        <v>-5.34130053295203</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4004,14 +4004,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>15</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.999851732089355</v>
+        <v>0.685183879567164</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.858757062146893</v>
+        <v>0.909604519774011</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.9</v>
+        <v>4.49</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0893607865109074</v>
+        <v>-0.0133791208791209</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.129835507008227</v>
+        <v>-0.0899260474305454</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0502294843632019</v>
+        <v>0.0499523284960353</v>
       </c>
       <c r="N40" t="n">
-        <v>-4.70319929004776</v>
+        <v>-0.297975966127414</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,46 +4095,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0.999999935664306</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.6610169491525421</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.064</v>
+        <v>0.4</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0050171703296703</v>
+        <v>0.0028936770650336</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0070240384615384</v>
+        <v>-0.06714650011123779</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.0034290010683776</v>
+        <v>0.026174967325798</v>
       </c>
       <c r="N41" t="n">
-        <v>-7.83932864010989</v>
+        <v>0.723419266258404</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4172,11 +4172,7 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4186,46 +4182,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.9169126782728459</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.9034090909090911</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>3.94</v>
+        <v>97.78</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0489223744292238</v>
+        <v>-0.253309367636377</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0966712705284708</v>
+        <v>-9.87224160433315</v>
       </c>
       <c r="M42" t="n">
-        <v>0.009991789992617101</v>
+        <v>5.38430295390829</v>
       </c>
       <c r="N42" t="n">
-        <v>-1.24168463018334</v>
+        <v>-0.259060510980136</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4230,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4263,11 +4259,7 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4277,7 +4269,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4292,7 +4284,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.04320536648685</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4304,19 +4296,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4</v>
+        <v>5.78</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0267556918380087</v>
+        <v>0.1698943630461</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.06714650011123779</v>
+        <v>-0.538876494820238</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.0019047130565484</v>
+        <v>0.441577669668389</v>
       </c>
       <c r="N43" t="n">
-        <v>-6.68892295950216</v>
+        <v>2.93934884162803</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4317,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4364,11 +4356,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4379,7 +4371,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.40324797025367</v>
+        <v>0.429013828493761</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4391,19 +4383,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>100</v>
+        <v>0.4005</v>
       </c>
       <c r="K44" t="n">
-        <v>-1.51918101435914</v>
+        <v>-0.0014847560975609</v>
       </c>
       <c r="L44" t="n">
-        <v>-9.99155707056128</v>
+        <v>-0.0116918693032731</v>
       </c>
       <c r="M44" t="n">
-        <v>4.29707153504951</v>
+        <v>0.0117265947012747</v>
       </c>
       <c r="N44" t="n">
-        <v>-1.51918101435914</v>
+        <v>-0.370725617368533</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4451,11 +4443,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4466,31 +4458,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.59675202974633</v>
+        <v>0.5357779792497041</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>5.444</v>
+        <v>98.89</v>
       </c>
       <c r="K45" t="n">
-        <v>0.130265754847645</v>
+        <v>0.188797216699801</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.538876494820238</v>
+        <v>-1.01058692234053</v>
       </c>
       <c r="M45" t="n">
-        <v>0.491079022841332</v>
+        <v>2.04989109594288</v>
       </c>
       <c r="N45" t="n">
-        <v>2.39283164672383</v>
+        <v>0.19091638861341</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4538,7 +4530,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4553,7 +4545,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.125726093254011</v>
+        <v>0.996354820954232</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4565,19 +4557,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4</v>
+        <v>5.13</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0034220920947564</v>
+        <v>0.226683701657459</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.019856649112907</v>
+        <v>0.123842211393621</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0024381776017739</v>
+        <v>0.294739759318167</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.855523023689112</v>
+        <v>4.41878560735787</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4586,7 +4578,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4616,180 +4608,6 @@
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Oroua at d/s Feilding STP</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>0.673288952622341</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.65972491349481</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-1.01058692234053</v>
-      </c>
-      <c r="M47" t="n">
-        <v>2.16431314583116</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.669771485781533</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>1816085.392</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5539897.699</v>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>Oroua</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Mana_12b</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Oroua at d/s Feilding STP</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>10</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0.985716159099243</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>5</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.204614762800072</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.09837126845963901</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.295018735911952</v>
-      </c>
-      <c r="N48" t="n">
-        <v>4.09229525600143</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Extremely likely improving</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>1816085.392</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5539897.699</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>Oroua</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Mana_12b</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/OrouaatdsFeildingSTP_1f7c6dc4c5.xlsx
+++ b/trend_results/Rivers/OrouaatdsFeildingSTP_1f7c6dc4c5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="65">
   <si>
     <t>site name</t>
   </si>
@@ -139,49 +139,43 @@
     <t>ok</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>Impact</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
     <t>As likely as not increasing</t>
   </si>
   <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
     <t>Likely increasing</t>
   </si>
   <si>
     <t>Virtually certain improving</t>
   </si>
   <si>
-    <t>Very unlikely increasing</t>
-  </si>
-  <si>
     <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
   </si>
   <si>
     <t>Virtually certain increasing</t>
@@ -666,37 +660,37 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.351419393643577</v>
+        <v>0.7841965249984451</v>
       </c>
       <c r="G2">
-        <v>0.0277777777777778</v>
+        <v>0.08823529411764711</v>
       </c>
       <c r="H2">
-        <v>0.916666666666667</v>
+        <v>0.794117647058823</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>7.25</v>
       </c>
       <c r="K2">
-        <v>0.318260905760906</v>
+        <v>-0.568612637362637</v>
       </c>
       <c r="L2">
-        <v>-1.57515722505181</v>
+        <v>-2.7934211937514</v>
       </c>
       <c r="M2">
-        <v>5.17072069777856</v>
+        <v>1.00755826447258</v>
       </c>
       <c r="N2">
-        <v>2.12173937173937</v>
+        <v>-7.84293292913983</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q2">
         <v>1816085.392</v>
@@ -705,19 +699,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" t="s">
         <v>59</v>
-      </c>
-      <c r="V2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -737,38 +731,38 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.243568641959045</v>
+        <v>0.059018930784425</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.692307692307692</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="K3">
-        <v>-0.031706878223817</v>
+        <v>-0.160549450549451</v>
       </c>
       <c r="L3">
-        <v>-0.268734438557918</v>
+        <v>-0.384560728038743</v>
       </c>
       <c r="M3">
-        <v>0.0540571062813085</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-3.42777061879103</v>
+        <v>-20.0686813186813</v>
       </c>
       <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s">
         <v>44</v>
       </c>
-      <c r="P3" t="s">
-        <v>46</v>
-      </c>
       <c r="Q3">
         <v>1816085.392</v>
       </c>
@@ -776,19 +770,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" t="s">
         <v>60</v>
-      </c>
-      <c r="W3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -808,37 +802,37 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.469957046613374</v>
+        <v>0.109935855314351</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.912280701754386</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.56</v>
+        <v>10.58</v>
       </c>
       <c r="K4">
-        <v>-0.0334478021978027</v>
+        <v>-0.0800766790775015</v>
       </c>
       <c r="L4">
-        <v>-0.144321372850834</v>
+        <v>-0.170583791208791</v>
       </c>
       <c r="M4">
-        <v>0.0635107614410431</v>
+        <v>0.0268157664287948</v>
       </c>
       <c r="N4">
-        <v>-0.316740551115556</v>
+        <v>-0.756868422282623</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q4">
         <v>1816085.392</v>
@@ -847,19 +841,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -879,13 +873,13 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>0.153432605118517</v>
+        <v>0.295534255532148</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.508474576271186</v>
+        <v>0.474576271186441</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -894,19 +888,19 @@
         <v>0.015</v>
       </c>
       <c r="K5">
-        <v>0.0008263574660633</v>
+        <v>0.0003727040816326</v>
       </c>
       <c r="L5">
-        <v>-0.0005162356629546001</v>
+        <v>-0.0009487764556806</v>
       </c>
       <c r="M5">
-        <v>0.0023193567722949</v>
+        <v>0.0016392670990208</v>
       </c>
       <c r="N5">
-        <v>5.50904977375565</v>
+        <v>2.48469387755102</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
         <v>46</v>
@@ -918,19 +912,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -950,37 +944,37 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.739255724619832</v>
+        <v>0.5494516044079401</v>
       </c>
       <c r="G6">
-        <v>0.0508474576271186</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H6">
-        <v>0.830508474576271</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6">
-        <v>130</v>
+        <v>123.6</v>
       </c>
       <c r="K6">
-        <v>-5.99753694581281</v>
+        <v>-1.17324598478445</v>
       </c>
       <c r="L6">
-        <v>-25.8677665484484</v>
+        <v>-14.7184892101723</v>
       </c>
       <c r="M6">
-        <v>13.0653807649159</v>
+        <v>17.3275282931906</v>
       </c>
       <c r="N6">
-        <v>-4.61348995831754</v>
+        <v>-0.949228143029487</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q6">
         <v>1816085.392</v>
@@ -989,19 +983,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1021,38 +1015,38 @@
         <v>41</v>
       </c>
       <c r="F7">
-        <v>0.43224397102947</v>
+        <v>0.0630815015268881</v>
       </c>
       <c r="G7">
-        <v>0.150943396226415</v>
+        <v>0.127272727272727</v>
       </c>
       <c r="H7">
-        <v>0.886792452830189</v>
+        <v>0.890909090909091</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0.215705616361785</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.0114382368712556</v>
       </c>
       <c r="L7">
-        <v>-0.0200929525220651</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.0065314885072275</v>
+        <v>0.0680833911616506</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.30270702459188</v>
       </c>
       <c r="O7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" t="s">
         <v>44</v>
       </c>
-      <c r="P7" t="s">
-        <v>45</v>
-      </c>
       <c r="Q7">
         <v>1816085.392</v>
       </c>
@@ -1060,19 +1054,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1089,40 +1083,40 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>0.58659609782936</v>
+        <v>0.747458787751811</v>
       </c>
       <c r="G8">
-        <v>0.101694915254237</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="H8">
-        <v>0.593220338983051</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.017</v>
+        <v>0.013</v>
       </c>
       <c r="K8">
-        <v>-0.0002508585164835</v>
+        <v>-0.0005005167529838</v>
       </c>
       <c r="L8">
-        <v>-0.0023305572954112</v>
+        <v>-0.0020068681318681</v>
       </c>
       <c r="M8">
-        <v>0.0010912498949882</v>
+        <v>0.0010022444139081</v>
       </c>
       <c r="N8">
-        <v>-1.47563833225598</v>
+        <v>-3.8501288691066</v>
       </c>
       <c r="O8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q8">
         <v>1816085.392</v>
@@ -1131,19 +1125,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1160,40 +1154,40 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9">
-        <v>0.0484690942141995</v>
+        <v>0.213639453085988</v>
       </c>
       <c r="G9">
         <v>0.0508474576271186</v>
       </c>
       <c r="H9">
-        <v>0.915254237288136</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.79</v>
+        <v>0.763</v>
       </c>
       <c r="K9">
-        <v>0.0252584167424932</v>
+        <v>0.0119034825468649</v>
       </c>
       <c r="L9">
-        <v>0.0008098631520426</v>
+        <v>-0.0441333357037383</v>
       </c>
       <c r="M9">
-        <v>0.0739135055913305</v>
+        <v>0.0437367676253041</v>
       </c>
       <c r="N9">
-        <v>3.19726794208774</v>
+        <v>1.56008945568347</v>
       </c>
       <c r="O9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <v>1816085.392</v>
@@ -1202,19 +1196,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1234,37 +1228,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.295676810411018</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.875</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.805</v>
+        <v>7.82</v>
       </c>
       <c r="K10">
-        <v>-0.0200686813186818</v>
+        <v>0.0050171703296703</v>
       </c>
       <c r="L10">
-        <v>-0.09255114156561831</v>
+        <v>-0.0527489128652278</v>
       </c>
       <c r="M10">
-        <v>0.045154532967033</v>
+        <v>0.0501717032967034</v>
       </c>
       <c r="N10">
-        <v>-0.257125961802457</v>
+        <v>0.0641581883589557</v>
       </c>
       <c r="O10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q10">
         <v>1816085.392</v>
@@ -1273,16 +1267,16 @@
         <v>5539897.699</v>
       </c>
       <c r="S10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1302,38 +1296,38 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.139508156605682</v>
+        <v>0.0648172904395064</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.9830508474576271</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.259</v>
+        <v>1.247</v>
       </c>
       <c r="K11">
-        <v>0.0352434210526316</v>
+        <v>0.0281675238120476</v>
       </c>
       <c r="L11">
-        <v>-0.0192256010097989</v>
+        <v>-0.0168421628678542</v>
       </c>
       <c r="M11">
-        <v>0.102933563807323</v>
+        <v>0.115672148558604</v>
       </c>
       <c r="N11">
-        <v>2.79931859035994</v>
+        <v>2.25882308035667</v>
       </c>
       <c r="O11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" t="s">
         <v>44</v>
       </c>
-      <c r="P11" t="s">
-        <v>46</v>
-      </c>
       <c r="Q11">
         <v>1816085.392</v>
       </c>
@@ -1341,19 +1335,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1373,7 +1367,7 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.109935855314351</v>
+        <v>0.138250240041716</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1385,22 +1379,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="K12">
-        <v>0.038697026657553</v>
+        <v>0.0424635052447553</v>
       </c>
       <c r="L12">
-        <v>-0.0468715211971429</v>
+        <v>-0.0323531980658268</v>
       </c>
       <c r="M12">
-        <v>0.114441194461185</v>
+        <v>0.121427561527552</v>
       </c>
       <c r="N12">
-        <v>2.72514272236289</v>
+        <v>3.12231656211436</v>
       </c>
       <c r="O12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P12" t="s">
         <v>46</v>
@@ -1412,19 +1406,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1441,41 +1435,41 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>0.791390373628491</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.76271186440678</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.034</v>
+      </c>
+      <c r="K13">
+        <v>-0.0013914285714285</v>
+      </c>
+      <c r="L13">
+        <v>-0.0073030183249893</v>
+      </c>
+      <c r="M13">
+        <v>0.0017703613841928</v>
+      </c>
+      <c r="N13">
+        <v>-4.09243697478992</v>
+      </c>
+      <c r="O13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" t="s">
         <v>43</v>
       </c>
-      <c r="F13">
-        <v>0.518262144223652</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0.779661016949153</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0.044</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>-0.006365616796955</v>
-      </c>
-      <c r="M13">
-        <v>0.004629684704609</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" t="s">
-        <v>45</v>
-      </c>
       <c r="Q13">
         <v>1816085.392</v>
       </c>
@@ -1483,19 +1477,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1515,37 +1509,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.528766206292791</v>
+        <v>0.471233793707209</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.9830508474576271</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.49</v>
+        <v>4.09</v>
       </c>
       <c r="K14">
-        <v>-0.0117067307692308</v>
+        <v>0.0530293090062112</v>
       </c>
       <c r="L14">
-        <v>-0.267458501484423</v>
+        <v>-0.261378002854872</v>
       </c>
       <c r="M14">
-        <v>0.683056741773997</v>
+        <v>0.6753011097248121</v>
       </c>
       <c r="N14">
-        <v>-0.260728970361487</v>
+        <v>1.29656012240125</v>
       </c>
       <c r="O14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q14">
         <v>1816085.392</v>
@@ -1554,19 +1548,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1583,40 +1577,40 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15">
-        <v>0.0794261708281678</v>
+        <v>0.482643744530369</v>
       </c>
       <c r="G15">
-        <v>0.0123456790123457</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="H15">
-        <v>0.814814814814815</v>
+        <v>0.79746835443038</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K15">
-        <v>0.0971709234601722</v>
+        <v>0.0006271462912087</v>
       </c>
       <c r="L15">
-        <v>-0.0400585874960445</v>
+        <v>-0.6955490882784759</v>
       </c>
       <c r="M15">
-        <v>0.557188064617284</v>
+        <v>0.245017802155486</v>
       </c>
       <c r="N15">
-        <v>1.49493728400265</v>
+        <v>0.0104524381868132</v>
       </c>
       <c r="O15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q15">
         <v>1816085.392</v>
@@ -1625,19 +1619,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U15" t="s">
+        <v>57</v>
+      </c>
+      <c r="V15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W15" t="s">
         <v>59</v>
-      </c>
-      <c r="V15" t="s">
-        <v>60</v>
-      </c>
-      <c r="W15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1657,34 +1651,34 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.03631464626037</v>
+        <v>0.028872973380486</v>
       </c>
       <c r="G16">
-        <v>0.018348623853211</v>
+        <v>0.0096153846153846</v>
       </c>
       <c r="H16">
-        <v>0.55045871559633</v>
+        <v>0.586538461538462</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="K16">
-        <v>-0.0499316473000684</v>
+        <v>-0.0449384825700615</v>
       </c>
       <c r="L16">
-        <v>-0.104822545506847</v>
+        <v>-0.09260076643847449</v>
       </c>
       <c r="M16">
-        <v>-0.0009229089162518</v>
+        <v>-0.0060696285670939</v>
       </c>
       <c r="N16">
-        <v>-5.25596287369141</v>
+        <v>-4.85821433189854</v>
       </c>
       <c r="O16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P16" t="s">
         <v>49</v>
@@ -1696,19 +1690,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V16" t="s">
+        <v>58</v>
+      </c>
+      <c r="W16" t="s">
         <v>60</v>
-      </c>
-      <c r="W16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1728,37 +1722,37 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.882532871999973</v>
+        <v>0.895465187524042</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.793103448275862</v>
+        <v>0.786324786324786</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.395</v>
+        <v>10.41</v>
       </c>
       <c r="K17">
-        <v>0.0271508215962441</v>
+        <v>0.0250858516483511</v>
       </c>
       <c r="L17">
-        <v>-0.0113898730651576</v>
+        <v>-0.0119655841979662</v>
       </c>
       <c r="M17">
-        <v>0.0533948509771427</v>
+        <v>0.049859202635439</v>
       </c>
       <c r="N17">
-        <v>0.261191164947033</v>
+        <v>0.240978402001452</v>
       </c>
       <c r="O17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q17">
         <v>1816085.392</v>
@@ -1767,19 +1761,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1799,13 +1793,13 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.0611538726485215</v>
+        <v>0.652780099682204</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.378151260504202</v>
+        <v>0.369747899159664</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1814,22 +1808,22 @@
         <v>0.014</v>
       </c>
       <c r="K18">
-        <v>0.0003998357963875</v>
+        <v>-0.0001999178981937</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-0.0007892290261134</v>
       </c>
       <c r="M18">
-        <v>0.0007950565645537001</v>
+        <v>0.0003244719265167</v>
       </c>
       <c r="N18">
-        <v>2.85596997419657</v>
+        <v>-1.42798498709829</v>
       </c>
       <c r="O18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q18">
         <v>1816085.392</v>
@@ -1838,19 +1832,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1867,40 +1861,40 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19">
-        <v>0.817892545686101</v>
+        <v>0.879303542050749</v>
       </c>
       <c r="G19">
         <v>0.0252100840336134</v>
       </c>
       <c r="H19">
-        <v>0.73109243697479</v>
+        <v>0.747899159663866</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K19">
-        <v>-4.81648351648352</v>
+        <v>-5.8828781512605</v>
       </c>
       <c r="L19">
-        <v>-14.693436386589</v>
+        <v>-14.2834899200783</v>
       </c>
       <c r="M19">
-        <v>3.73645200829436</v>
+        <v>1.73928571428573</v>
       </c>
       <c r="N19">
-        <v>-3.0103021978022</v>
+        <v>-4.20205582232893</v>
       </c>
       <c r="O19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q19">
         <v>1816085.392</v>
@@ -1909,19 +1903,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1941,37 +1935,37 @@
         <v>40</v>
       </c>
       <c r="F20">
-        <v>0.856462007398773</v>
+        <v>0.862373275816179</v>
       </c>
       <c r="G20">
-        <v>0.0818181818181818</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="H20">
-        <v>0.936363636363636</v>
+        <v>0.936936936936937</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20">
-        <v>0.378804020257681</v>
+        <v>0.392671124652162</v>
       </c>
       <c r="K20">
-        <v>-0.0105151453085307</v>
+        <v>-0.0123724758093337</v>
       </c>
       <c r="L20">
-        <v>-0.0290455732530356</v>
+        <v>-0.032545901620033</v>
       </c>
       <c r="M20">
-        <v>0.0051905955008289</v>
+        <v>0.0047240882587175</v>
       </c>
       <c r="N20">
-        <v>-2.77588007154142</v>
+        <v>-3.15084940872429</v>
       </c>
       <c r="O20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q20">
         <v>1816085.392</v>
@@ -1980,19 +1974,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2006,43 +2000,43 @@
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
       </c>
       <c r="F21">
-        <v>0.992186709596007</v>
+        <v>0.99999853056419</v>
       </c>
       <c r="G21">
-        <v>0.0504201680672269</v>
+        <v>0.0756302521008403</v>
       </c>
       <c r="H21">
-        <v>0.529411764705882</v>
+        <v>0.521008403361345</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="K21">
-        <v>-0.0016362618218018</v>
+        <v>-0.0026587807097361</v>
       </c>
       <c r="L21">
-        <v>-0.0026941202702117</v>
+        <v>-0.0036052659497792</v>
       </c>
       <c r="M21">
-        <v>-0.0005095995211542</v>
+        <v>-0.0018797465440893</v>
       </c>
       <c r="N21">
-        <v>-7.11418183392127</v>
+        <v>-12.0853668624369</v>
       </c>
       <c r="O21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q21">
         <v>1816085.392</v>
@@ -2051,19 +2045,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2083,13 +2077,13 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.622975212642385</v>
+        <v>0.982807360170686</v>
       </c>
       <c r="G22">
         <v>0.0252100840336134</v>
       </c>
       <c r="H22">
-        <v>0.9327731092436971</v>
+        <v>0.907563025210084</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2098,22 +2092,22 @@
         <v>0.847</v>
       </c>
       <c r="K22">
-        <v>-0.0099577426390403</v>
+        <v>-0.0391339285714285</v>
       </c>
       <c r="L22">
-        <v>-0.0411409321240054</v>
+        <v>-0.0666973435338223</v>
       </c>
       <c r="M22">
-        <v>0.0152880977262974</v>
+        <v>-0.0100520848948935</v>
       </c>
       <c r="N22">
-        <v>-1.17564848158682</v>
+        <v>-4.62029853263619</v>
       </c>
       <c r="O22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P22" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q22">
         <v>1816085.392</v>
@@ -2122,19 +2116,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2154,37 +2148,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.73474277516158</v>
+        <v>0.866063310895028</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.739130434782609</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.75</v>
+        <v>7.78</v>
       </c>
       <c r="K23">
-        <v>0.0098361759425494</v>
+        <v>0.012482911825017</v>
       </c>
       <c r="L23">
-        <v>-0.0123004892950671</v>
+        <v>-0.0049344524461596</v>
       </c>
       <c r="M23">
-        <v>0.0279960326420613</v>
+        <v>0.0308968373906776</v>
       </c>
       <c r="N23">
-        <v>0.126918399258703</v>
+        <v>0.160448738110759</v>
       </c>
       <c r="O23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q23">
         <v>1816085.392</v>
@@ -2193,16 +2187,16 @@
         <v>5539897.699</v>
       </c>
       <c r="S23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2222,7 +2216,7 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.671478325946215</v>
+        <v>0.938334002004369</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2237,22 +2231,22 @@
         <v>1.46</v>
       </c>
       <c r="K24">
-        <v>-0.0147278225806452</v>
+        <v>-0.0588103802672148</v>
       </c>
       <c r="L24">
-        <v>-0.0851411353428799</v>
+        <v>-0.123762103101499</v>
       </c>
       <c r="M24">
-        <v>0.0399023066398388</v>
+        <v>0.0004916662026602</v>
       </c>
       <c r="N24">
-        <v>-1.00875497127707</v>
+        <v>-4.02810823748047</v>
       </c>
       <c r="O24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P24" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q24">
         <v>1816085.392</v>
@@ -2261,19 +2255,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2293,37 +2287,37 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.88512427455579</v>
+        <v>0.988510434182985</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.899159663865546</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="K25">
-        <v>-0.0635109103307194</v>
+        <v>-0.0943502935420744</v>
       </c>
       <c r="L25">
-        <v>-0.137136417024628</v>
+        <v>-0.156165877291725</v>
       </c>
       <c r="M25">
-        <v>0.0102600476517986</v>
+        <v>-0.0228901522271114</v>
       </c>
       <c r="N25">
-        <v>-3.67115088616875</v>
+        <v>-5.48548218267874</v>
       </c>
       <c r="O25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P25" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q25">
         <v>1816085.392</v>
@@ -2332,19 +2326,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2364,37 +2358,37 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.760099385087927</v>
+        <v>0.989384590508091</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.65546218487395</v>
+        <v>0.638655462184874</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.047</v>
+        <v>0.044</v>
       </c>
       <c r="K26">
-        <v>-0.0006668188041989</v>
+        <v>-0.0015575692963752</v>
       </c>
       <c r="L26">
-        <v>-0.0019603144172671</v>
+        <v>-0.0032486465498243</v>
       </c>
       <c r="M26">
-        <v>0.0009765017982265</v>
+        <v>-0.0003400909065468</v>
       </c>
       <c r="N26">
-        <v>-1.41876341318935</v>
+        <v>-3.5399302190347</v>
       </c>
       <c r="O26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P26" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q26">
         <v>1816085.392</v>
@@ -2403,19 +2397,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2432,40 +2426,40 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F27">
-        <v>0.5</v>
+        <v>0.592980530103114</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.9327731092436971</v>
+        <v>0.92436974789916</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>4.88</v>
+        <v>4.42</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>-0.0119492911668484</v>
       </c>
       <c r="L27">
-        <v>-0.107562443409577</v>
+        <v>-0.142955727830178</v>
       </c>
       <c r="M27">
-        <v>0.124153074211534</v>
+        <v>0.0950578407415226</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>-0.270345954001096</v>
       </c>
       <c r="O27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q27">
         <v>1816085.392</v>
@@ -2474,19 +2468,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2506,37 +2500,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.24544412214029</v>
+        <v>0.46581979800927</v>
       </c>
       <c r="G28">
-        <v>0.0074626865671641</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="H28">
-        <v>0.746268656716418</v>
+        <v>0.734848484848485</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K28">
-        <v>0.0127538387170155</v>
+        <v>0.0009825861510764</v>
       </c>
       <c r="L28">
-        <v>-0.0606869664229893</v>
+        <v>-0.185535210023164</v>
       </c>
       <c r="M28">
-        <v>0.188084598455352</v>
+        <v>0.0638099661530874</v>
       </c>
       <c r="N28">
-        <v>0.1962129033387</v>
+        <v>0.0163764358512741</v>
       </c>
       <c r="O28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q28">
         <v>1816085.392</v>
@@ -2545,19 +2539,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U28" t="s">
+        <v>57</v>
+      </c>
+      <c r="V28" t="s">
+        <v>58</v>
+      </c>
+      <c r="W28" t="s">
         <v>59</v>
-      </c>
-      <c r="V28" t="s">
-        <v>60</v>
-      </c>
-      <c r="W28" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2577,13 +2571,13 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.112269269121218</v>
+        <v>0.02906799699948</v>
       </c>
       <c r="G29">
-        <v>0.0125786163522013</v>
+        <v>0.0129032258064516</v>
       </c>
       <c r="H29">
-        <v>0.452830188679245</v>
+        <v>0.47741935483871</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2592,22 +2586,22 @@
         <v>1.1</v>
       </c>
       <c r="K29">
-        <v>-0.0169061645276667</v>
+        <v>-0.025862032704138</v>
       </c>
       <c r="L29">
-        <v>-0.0499316473000684</v>
+        <v>-0.0549930855548817</v>
       </c>
       <c r="M29">
-        <v>0.0039301561824825</v>
+        <v>-0.0017489787578898</v>
       </c>
       <c r="N29">
-        <v>-1.5369240479697</v>
+        <v>-2.35109388219436</v>
       </c>
       <c r="O29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q29">
         <v>1816085.392</v>
@@ -2616,19 +2610,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V29" t="s">
+        <v>58</v>
+      </c>
+      <c r="W29" t="s">
         <v>60</v>
-      </c>
-      <c r="W29" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2648,37 +2642,37 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.08487286575802901</v>
+        <v>0.274549938019113</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.8092485549132949</v>
+        <v>0.78735632183908</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10.42</v>
+        <v>10.415</v>
       </c>
       <c r="K30">
-        <v>-0.0200446181516323</v>
+        <v>-0.0074897470950103</v>
       </c>
       <c r="L30">
-        <v>-0.046918542935038</v>
+        <v>-0.0346704115339769</v>
       </c>
       <c r="M30">
-        <v>0.0051853234185272</v>
+        <v>0.0167847452373071</v>
       </c>
       <c r="N30">
-        <v>-0.192366776887067</v>
+        <v>-0.0719130782046118</v>
       </c>
       <c r="O30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P30" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q30">
         <v>1816085.392</v>
@@ -2687,19 +2681,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2719,37 +2713,37 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>0.998373632528365</v>
+        <v>0.971601769150088</v>
       </c>
       <c r="G31">
-        <v>0.0451977401129944</v>
+        <v>0.050561797752809</v>
       </c>
       <c r="H31">
-        <v>0.350282485875706</v>
+        <v>0.297752808988764</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="K31">
-        <v>-0.0008139275867062</v>
+        <v>-0.0004409456740442</v>
       </c>
       <c r="L31">
-        <v>-0.0013588169642857</v>
+        <v>-0.0008356934022334</v>
       </c>
       <c r="M31">
-        <v>-0.000342528915286</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>-5.08704741691387</v>
+        <v>-2.93963782696177</v>
       </c>
       <c r="O31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q31">
         <v>1816085.392</v>
@@ -2758,19 +2752,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2790,37 +2784,37 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.998105978364994</v>
+        <v>0.998214483063768</v>
       </c>
       <c r="G32">
-        <v>0.0169491525423729</v>
+        <v>0.0168539325842697</v>
       </c>
       <c r="H32">
-        <v>0.734463276836158</v>
+        <v>0.747191011235955</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="K32">
-        <v>-10.8954178844526</v>
+        <v>-9.54238465814341</v>
       </c>
       <c r="L32">
-        <v>-17.397429120093</v>
+        <v>-14.7340714983466</v>
       </c>
       <c r="M32">
-        <v>-4.70376696110298</v>
+        <v>-4.42262568097842</v>
       </c>
       <c r="N32">
-        <v>-4.95246267475119</v>
+        <v>-4.8935305939197</v>
       </c>
       <c r="O32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q32">
         <v>1816085.392</v>
@@ -2829,19 +2823,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2861,37 +2855,37 @@
         <v>40</v>
       </c>
       <c r="F33">
-        <v>0.961789816308852</v>
+        <v>0.722391434304425</v>
       </c>
       <c r="G33">
-        <v>0.0658682634730539</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="H33">
-        <v>0.952095808383233</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="I33">
         <v>3</v>
       </c>
       <c r="J33">
-        <v>0.384101041194848</v>
+        <v>0.362216483569575</v>
       </c>
       <c r="K33">
-        <v>-0.0103561290945801</v>
+        <v>-0.0034970549578338</v>
       </c>
       <c r="L33">
-        <v>-0.0201046330576076</v>
+        <v>-0.0128388553294128</v>
       </c>
       <c r="M33">
-        <v>-0.000629003301489</v>
+        <v>0.0061151399306355</v>
       </c>
       <c r="N33">
-        <v>-2.6961991725835</v>
+        <v>-0.965459915951649</v>
       </c>
       <c r="O33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P33" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="Q33">
         <v>1816085.392</v>
@@ -2900,19 +2894,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2932,37 +2926,37 @@
         <v>40</v>
       </c>
       <c r="F34">
-        <v>0.997461602787286</v>
+        <v>0.999799167155714</v>
       </c>
       <c r="G34">
-        <v>0.0419161676646707</v>
+        <v>0.0561797752808989</v>
       </c>
       <c r="H34">
-        <v>0.461077844311377</v>
+        <v>0.432584269662921</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.024</v>
+        <v>0.022</v>
       </c>
       <c r="K34">
-        <v>-0.0011801292407108</v>
+        <v>-0.0012704347826087</v>
       </c>
       <c r="L34">
-        <v>-0.001985054347826</v>
+        <v>-0.001942820197391</v>
       </c>
       <c r="M34">
-        <v>-0.0004996707792235</v>
+        <v>-0.000668955003408</v>
       </c>
       <c r="N34">
-        <v>-4.91720516962843</v>
+        <v>-5.77470355731225</v>
       </c>
       <c r="O34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q34">
         <v>1816085.392</v>
@@ -2971,19 +2965,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3003,37 +2997,37 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.782239149707043</v>
+        <v>0.899178222300533</v>
       </c>
       <c r="G35">
-        <v>0.0179640718562874</v>
+        <v>0.0168539325842697</v>
       </c>
       <c r="H35">
-        <v>0.916167664670659</v>
+        <v>0.904494382022472</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0.8080000000000001</v>
+        <v>0.791</v>
       </c>
       <c r="K35">
-        <v>-0.0099219800537984</v>
+        <v>-0.0128175776823443</v>
       </c>
       <c r="L35">
-        <v>-0.0273423514656723</v>
+        <v>-0.0269604991916522</v>
       </c>
       <c r="M35">
-        <v>0.011131000015712</v>
+        <v>0.0024459902392841</v>
       </c>
       <c r="N35">
-        <v>-1.2279678284404</v>
+        <v>-1.62042701420282</v>
       </c>
       <c r="O35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P35" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q35">
         <v>1816085.392</v>
@@ -3042,19 +3036,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3074,37 +3068,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.99999972149659</v>
+        <v>0.999999349574095</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.6220930232558139</v>
+        <v>0.61849710982659</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.655</v>
+        <v>7.69</v>
       </c>
       <c r="K36">
-        <v>0.0301030219780219</v>
+        <v>0.0290357730263158</v>
       </c>
       <c r="L36">
-        <v>0.0200686813186813</v>
+        <v>0.0199154852780806</v>
       </c>
       <c r="M36">
-        <v>0.0396500540637979</v>
+        <v>0.038226015872335</v>
       </c>
       <c r="N36">
-        <v>0.393246531391534</v>
+        <v>0.377578322838957</v>
       </c>
       <c r="O36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q36">
         <v>1816085.392</v>
@@ -3113,16 +3107,16 @@
         <v>5539897.699</v>
       </c>
       <c r="S36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3142,37 +3136,37 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.975717870756142</v>
+        <v>0.783345503999216</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.943502824858757</v>
+        <v>0.949438202247191</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1.46</v>
+        <v>1.36355</v>
       </c>
       <c r="K37">
-        <v>-0.0458056161395856</v>
+        <v>-0.0152263543427144</v>
       </c>
       <c r="L37">
-        <v>-0.07520636005228321</v>
+        <v>-0.0463904840702133</v>
       </c>
       <c r="M37">
-        <v>-0.007978254967942</v>
+        <v>0.0174171952528644</v>
       </c>
       <c r="N37">
-        <v>-3.13737096846477</v>
+        <v>-1.11667004090165</v>
       </c>
       <c r="O37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P37" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="Q37">
         <v>1816085.392</v>
@@ -3181,19 +3175,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3213,37 +3207,37 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.998089302340347</v>
+        <v>0.972300129610039</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.864406779661017</v>
+        <v>0.837078651685393</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="K38">
-        <v>-0.0722472527472528</v>
+        <v>-0.0408332307060755</v>
       </c>
       <c r="L38">
-        <v>-0.115082164158378</v>
+        <v>-0.0792717506368793</v>
       </c>
       <c r="M38">
-        <v>-0.0356900481056303</v>
+        <v>-0.0055969417271378</v>
       </c>
       <c r="N38">
-        <v>-4.01373626373627</v>
+        <v>-2.36714380904786</v>
       </c>
       <c r="O38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q38">
         <v>1816085.392</v>
@@ -3252,19 +3246,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3284,37 +3278,37 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.99996970736785</v>
+        <v>0.999961743093815</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.627118644067797</v>
+        <v>0.589887640449438</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.056</v>
+        <v>0.0485</v>
       </c>
       <c r="K39">
-        <v>-0.0029911282984531</v>
+        <v>-0.0019956757121524</v>
       </c>
       <c r="L39">
-        <v>-0.0045661689888912</v>
+        <v>-0.0033686160646673</v>
       </c>
       <c r="M39">
-        <v>-0.0014459438061142</v>
+        <v>-0.0011031868854962</v>
       </c>
       <c r="N39">
-        <v>-5.34130053295203</v>
+        <v>-4.11479528278848</v>
       </c>
       <c r="O39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q39">
         <v>1816085.392</v>
@@ -3323,19 +3317,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3355,37 +3349,37 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.685183879567164</v>
+        <v>0.841709530318039</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.909604519774011</v>
+        <v>0.915730337078652</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>4.49</v>
+        <v>4.07</v>
       </c>
       <c r="K40">
-        <v>-0.0133791208791209</v>
+        <v>-0.0414254118350107</v>
       </c>
       <c r="L40">
-        <v>-0.0899260474305454</v>
+        <v>-0.104560920834137</v>
       </c>
       <c r="M40">
-        <v>0.0499523284960353</v>
+        <v>0.0162713044113314</v>
       </c>
       <c r="N40">
-        <v>-0.297975966127414</v>
+        <v>-1.0178233866096</v>
       </c>
       <c r="O40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P40" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q40">
         <v>1816085.392</v>
@@ -3394,19 +3388,19 @@
         <v>5539897.699</v>
       </c>
       <c r="S40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3426,7 +3420,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.5</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3438,25 +3432,25 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.4</v>
+        <v>0.362</v>
       </c>
       <c r="K41">
-        <v>0.0028936770650336</v>
+        <v>-0.0218740644360002</v>
       </c>
       <c r="L41">
-        <v>-0.06714650011123779</v>
+        <v>-0.15403218333803</v>
       </c>
       <c r="M41">
         <v>0.026174967325798</v>
       </c>
       <c r="N41">
-        <v>0.723419266258404</v>
+        <v>-6.04255923646414</v>
       </c>
       <c r="O41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q41">
         <v>1816085.392</v>
@@ -3465,16 +3459,16 @@
         <v>5539897.699</v>
       </c>
       <c r="S41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3494,7 +3488,7 @@
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0.5</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3509,22 +3503,22 @@
         <v>97.78</v>
       </c>
       <c r="K42">
-        <v>-0.253309367636377</v>
+        <v>-2.83695991435545</v>
       </c>
       <c r="L42">
-        <v>-9.87224160433315</v>
+        <v>-10.2295612012967</v>
       </c>
       <c r="M42">
-        <v>5.38430295390829</v>
+        <v>2.1899691147769</v>
       </c>
       <c r="N42">
-        <v>-0.259060510980136</v>
+        <v>-2.90137033581044</v>
       </c>
       <c r="O42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q42">
         <v>1816085.392</v>
@@ -3533,16 +3527,16 @@
         <v>5539897.699</v>
       </c>
       <c r="S42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3562,7 +3556,7 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.59675202974633</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3574,25 +3568,25 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>5.78</v>
+        <v>5.444</v>
       </c>
       <c r="K43">
-        <v>0.1698943630461</v>
+        <v>-0.325492606695915</v>
       </c>
       <c r="L43">
-        <v>-0.538876494820238</v>
+        <v>-2.23898571751232</v>
       </c>
       <c r="M43">
         <v>0.441577669668389</v>
       </c>
       <c r="N43">
-        <v>2.93934884162803</v>
+        <v>-5.97892370859507</v>
       </c>
       <c r="O43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q43">
         <v>1816085.392</v>
@@ -3601,16 +3595,16 @@
         <v>5539897.699</v>
       </c>
       <c r="S43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3630,7 +3624,7 @@
         <v>40</v>
       </c>
       <c r="F44">
-        <v>0.429013828493761</v>
+        <v>0.360257393568128</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3642,25 +3636,25 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.4005</v>
+        <v>0.381</v>
       </c>
       <c r="K44">
-        <v>-0.0014847560975609</v>
+        <v>-0.0021990968801313</v>
       </c>
       <c r="L44">
-        <v>-0.0116918693032731</v>
+        <v>-0.0200192932334506</v>
       </c>
       <c r="M44">
         <v>0.0117265947012747</v>
       </c>
       <c r="N44">
-        <v>-0.370725617368533</v>
+        <v>-0.5771907821867071</v>
       </c>
       <c r="O44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q44">
         <v>1816085.392</v>
@@ -3669,16 +3663,16 @@
         <v>5539897.699</v>
       </c>
       <c r="S44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3698,37 +3692,37 @@
         <v>40</v>
       </c>
       <c r="F45">
-        <v>0.5357779792497041</v>
+        <v>0.5</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>98.89</v>
+        <v>97.39</v>
       </c>
       <c r="K45">
-        <v>0.188797216699801</v>
+        <v>-0.0969178217821785</v>
       </c>
       <c r="L45">
-        <v>-1.01058692234053</v>
+        <v>-1.50791991105076</v>
       </c>
       <c r="M45">
-        <v>2.04989109594288</v>
+        <v>1.85228858662223</v>
       </c>
       <c r="N45">
-        <v>0.19091638861341</v>
+        <v>-0.0995151676580537</v>
       </c>
       <c r="O45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q45">
         <v>1816085.392</v>
@@ -3737,16 +3731,16 @@
         <v>5539897.699</v>
       </c>
       <c r="S45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3766,7 +3760,7 @@
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.996354820954232</v>
+        <v>0.894751149972331</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3781,22 +3775,22 @@
         <v>5.13</v>
       </c>
       <c r="K46">
-        <v>0.226683701657459</v>
+        <v>0.177905069582505</v>
       </c>
       <c r="L46">
-        <v>0.123842211393621</v>
+        <v>-0.0955467207304246</v>
       </c>
       <c r="M46">
-        <v>0.294739759318167</v>
+        <v>0.290299276854237</v>
       </c>
       <c r="N46">
-        <v>4.41878560735787</v>
+        <v>3.46793507958099</v>
       </c>
       <c r="O46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P46" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="Q46">
         <v>1816085.392</v>
@@ -3805,16 +3799,16 @@
         <v>5539897.699</v>
       </c>
       <c r="S46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
